--- a/BOM e datasheet/BOM.xlsx
+++ b/BOM e datasheet/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://midacspa-my.sharepoint.com/personal/riccardo_mattuzzi_midacbatteries_com/Documents/Documenti/cella_di_lievitazione/BOM e datasheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="8_{6900F1C8-D8B3-4807-AEC0-609A5619ABC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC003A37-408F-4D19-B350-2A96ABCC8F26}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="8_{6900F1C8-D8B3-4807-AEC0-609A5619ABC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85ACAAB4-537B-4927-AE71-2DF882D317F8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{474E07AD-7AAC-4CCB-9913-5DDD86DC6BD2}"/>
+    <workbookView minimized="1" xWindow="780" yWindow="780" windowWidth="21600" windowHeight="12645" xr2:uid="{474E07AD-7AAC-4CCB-9913-5DDD86DC6BD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="5" r:id="rId1"/>
@@ -71,9 +71,6 @@
     <t>LED</t>
   </si>
   <si>
-    <t>Fusibile</t>
-  </si>
-  <si>
     <t>Resistenza</t>
   </si>
   <si>
@@ -99,6 +96,9 @@
   </si>
   <si>
     <t>Porta CAN?</t>
+  </si>
+  <si>
+    <t>Fusibile 5 A</t>
   </si>
 </sst>
 </file>
@@ -462,10 +462,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5095E20A-1147-42E2-981A-F3902435D0B4}" name="Tabella4" displayName="Tabella4" ref="A6:H15" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="A6:H15" xr:uid="{5095E20A-1147-42E2-981A-F3902435D0B4}"/>
@@ -803,7 +799,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="206" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -815,7 +811,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="1"/>
@@ -865,10 +861,10 @@
         <v>6</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -900,10 +896,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
+      <c r="D9" s="5">
+        <v>2</v>
+      </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -911,7 +910,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
@@ -922,7 +921,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
@@ -933,7 +932,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
@@ -944,7 +943,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
@@ -955,7 +954,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
@@ -966,7 +965,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
@@ -1329,6 +1328,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxKeywordTaxHTField xmlns="0143dcb5-b38d-453e-8e82-47e5684eca4e">
@@ -1360,15 +1368,6 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BE38B42-C33C-411C-9CDF-85F8FFA8E767}">
   <ds:schemaRefs>
@@ -1390,6 +1389,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC136203-09B0-4EA6-865A-D597761C1DEB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2670EE2-0279-41C4-B1BC-C72EDB966A88}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -1405,12 +1412,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC136203-09B0-4EA6-865A-D597761C1DEB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/BOM e datasheet/BOM.xlsx
+++ b/BOM e datasheet/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://midacspa-my.sharepoint.com/personal/riccardo_mattuzzi_midacbatteries_com/Documents/Documenti/cella_di_lievitazione/BOM e datasheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{6900F1C8-D8B3-4807-AEC0-609A5619ABC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85ACAAB4-537B-4927-AE71-2DF882D317F8}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="8_{6900F1C8-D8B3-4807-AEC0-609A5619ABC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACF996A9-15C3-47E7-B889-9B6F9A8CE3FD}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="780" yWindow="780" windowWidth="21600" windowHeight="12645" xr2:uid="{474E07AD-7AAC-4CCB-9913-5DDD86DC6BD2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{474E07AD-7AAC-4CCB-9913-5DDD86DC6BD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>(Titolo tabella)</t>
   </si>
@@ -99,6 +99,21 @@
   </si>
   <si>
     <t>Fusibile 5 A</t>
+  </si>
+  <si>
+    <t>STM32G030K6T6TR</t>
+  </si>
+  <si>
+    <t>Link DigiKey</t>
+  </si>
+  <si>
+    <t>SMSP</t>
+  </si>
+  <si>
+    <t>Link Mouser</t>
+  </si>
+  <si>
+    <t>Da controllare se va bene.</t>
   </si>
 </sst>
 </file>
@@ -463,8 +478,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5095E20A-1147-42E2-981A-F3902435D0B4}" name="Tabella4" displayName="Tabella4" ref="A6:H15" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="A6:H15" xr:uid="{5095E20A-1147-42E2-981A-F3902435D0B4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5095E20A-1147-42E2-981A-F3902435D0B4}" name="Tabella4" displayName="Tabella4" ref="A6:H16" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="A6:H16" xr:uid="{5095E20A-1147-42E2-981A-F3902435D0B4}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{4EA44607-612E-4E0E-B876-53478E8A15E2}" name="Descrizione" dataDxfId="7"/>
     <tableColumn id="6" xr3:uid="{1CE43BCF-3EE3-4CB7-9D6C-EBBD7D4CFDCA}" name="Produttore" dataDxfId="6"/>
@@ -796,10 +811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B2ACCA9-0C84-4CCE-ACB9-751036E0B3BF}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="206" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -867,18 +882,22 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="27" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="C7" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="D7" s="5">
         <v>1</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -974,11 +993,31 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
+    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="E16" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E7" r:id="rId1" xr:uid="{2115F6BE-D323-402C-B189-D7FE1EDFDC1F}"/>
+    <hyperlink ref="E16" r:id="rId2" xr:uid="{8DAF232B-D6F5-4C96-A853-44388E9184ED}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>

--- a/BOM e datasheet/BOM.xlsx
+++ b/BOM e datasheet/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://midacspa-my.sharepoint.com/personal/riccardo_mattuzzi_midacbatteries_com/Documents/Documenti/cella_di_lievitazione/BOM e datasheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="8_{6900F1C8-D8B3-4807-AEC0-609A5619ABC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACF996A9-15C3-47E7-B889-9B6F9A8CE3FD}"/>
+  <xr:revisionPtr revIDLastSave="121" documentId="8_{6900F1C8-D8B3-4807-AEC0-609A5619ABC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0999BC7-A6A4-421D-82FA-C0FD604F2866}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{474E07AD-7AAC-4CCB-9913-5DDD86DC6BD2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
   <si>
     <t>(Titolo tabella)</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Link 1</t>
   </si>
   <si>
-    <t>Link 2</t>
-  </si>
-  <si>
     <t>CPU</t>
   </si>
   <si>
@@ -92,9 +89,6 @@
     <t>Connettore 1</t>
   </si>
   <si>
-    <t>Porta USB?</t>
-  </si>
-  <si>
     <t>Porta CAN?</t>
   </si>
   <si>
@@ -114,6 +108,57 @@
   </si>
   <si>
     <t>Da controllare se va bene.</t>
+  </si>
+  <si>
+    <t>UJC-H-G-SMT-P6-TR</t>
+  </si>
+  <si>
+    <t>Same Sky</t>
+  </si>
+  <si>
+    <t>Gruppo</t>
+  </si>
+  <si>
+    <t>Porta USB</t>
+  </si>
+  <si>
+    <t>Debug</t>
+  </si>
+  <si>
+    <t>Alimentazione primaria</t>
+  </si>
+  <si>
+    <t>No-opto flyback tansformer</t>
+  </si>
+  <si>
+    <t>USB Power Delivery</t>
+  </si>
+  <si>
+    <t>MOSFET n-ch</t>
+  </si>
+  <si>
+    <t>Pull-up resistor</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>USB interface IC</t>
+  </si>
+  <si>
+    <t>CYPD3177-24LQXQT</t>
+  </si>
+  <si>
+    <t>Infineon</t>
+  </si>
+  <si>
+    <t>Datasheet</t>
+  </si>
+  <si>
+    <t>Doc. 1</t>
+  </si>
+  <si>
+    <t>Pulsante per ON/OFF</t>
   </si>
 </sst>
 </file>
@@ -221,7 +266,26 @@
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -240,6 +304,25 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -297,25 +380,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -448,10 +512,10 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Stile tabella 1" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Stile tabella 1" pivot="0" count="4" xr9:uid="{C473601D-68EB-4C00-AEEB-146515578BCD}">
-      <tableStyleElement type="wholeTable" dxfId="12"/>
-      <tableStyleElement type="headerRow" dxfId="11"/>
-      <tableStyleElement type="totalRow" dxfId="10"/>
-      <tableStyleElement type="firstRowStripe" dxfId="9"/>
+      <tableStyleElement type="wholeTable" dxfId="13"/>
+      <tableStyleElement type="headerRow" dxfId="12"/>
+      <tableStyleElement type="totalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowStripe" dxfId="10"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -478,17 +542,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5095E20A-1147-42E2-981A-F3902435D0B4}" name="Tabella4" displayName="Tabella4" ref="A6:H16" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="A6:H16" xr:uid="{5095E20A-1147-42E2-981A-F3902435D0B4}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{4EA44607-612E-4E0E-B876-53478E8A15E2}" name="Descrizione" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{1CE43BCF-3EE3-4CB7-9D6C-EBBD7D4CFDCA}" name="Produttore" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{857D4DC0-83B2-4716-A8E7-6A350B55319B}" name="PN" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{008672F6-50FB-4036-B51A-ABEF39F8D83E}" name="Quantità" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{63EB43F7-1E48-4BBF-A207-E447E6BB6A72}" name="Link 1" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{7B3DA2D8-867A-455C-9C5D-A4BD2DF6D4C4}" name="Link 2" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{C1B6FE26-4A97-4460-8C9D-4BB80459E540}" name="Nota 1" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{50AA0DFA-4D0A-40B6-8AA8-3BE030FB2E79}" name="Nota 2" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5095E20A-1147-42E2-981A-F3902435D0B4}" name="Tabella4" displayName="Tabella4" ref="A6:I22" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="A6:I22" xr:uid="{5095E20A-1147-42E2-981A-F3902435D0B4}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:I21">
+    <sortCondition ref="E7:E21"/>
+    <sortCondition ref="B7:B21"/>
+    <sortCondition ref="C7:C21"/>
+  </sortState>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{4EA44607-612E-4E0E-B876-53478E8A15E2}" name="Descrizione" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{1CE43BCF-3EE3-4CB7-9D6C-EBBD7D4CFDCA}" name="Produttore" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{857D4DC0-83B2-4716-A8E7-6A350B55319B}" name="PN" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{008672F6-50FB-4036-B51A-ABEF39F8D83E}" name="Quantità" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{10B68DF9-9DE7-4148-994A-A586812D992C}" name="Gruppo" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{63EB43F7-1E48-4BBF-A207-E447E6BB6A72}" name="Link 1" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{7B3DA2D8-867A-455C-9C5D-A4BD2DF6D4C4}" name="Doc. 1" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{C1B6FE26-4A97-4460-8C9D-4BB80459E540}" name="Nota 1" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{50AA0DFA-4D0A-40B6-8AA8-3BE030FB2E79}" name="Nota 2" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="Stile tabella 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -811,57 +881,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B2ACCA9-0C84-4CCE-ACB9-751036E0B3BF}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="206" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="206" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.140625" style="2"/>
-    <col min="3" max="4" width="12.140625" style="5"/>
-    <col min="5" max="16384" width="12.140625" style="2"/>
+    <col min="1" max="1" width="24.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="2"/>
+    <col min="3" max="3" width="24.28515625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="5"/>
+    <col min="5" max="5" width="24.28515625" style="5" customWidth="1"/>
+    <col min="6" max="7" width="12.140625" style="2"/>
+    <col min="8" max="9" width="24.28515625" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="12.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
@@ -870,154 +950,292 @@
         <v>4</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="G6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="5">
-        <v>1</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="E7" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="E8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="5">
-        <v>2</v>
-      </c>
-      <c r="E9" s="7"/>
+      <c r="E9" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
-      <c r="E10" s="7"/>
+      <c r="D10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
-      <c r="E11" s="7"/>
+      <c r="D11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
-      <c r="E12" s="7"/>
+      <c r="D12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
-      <c r="E15" s="7"/>
+      <c r="E15" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="E16" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7" t="s">
-        <v>25</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="7"/>
       <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="5">
+        <v>2</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E7" r:id="rId1" xr:uid="{2115F6BE-D323-402C-B189-D7FE1EDFDC1F}"/>
-    <hyperlink ref="E16" r:id="rId2" xr:uid="{8DAF232B-D6F5-4C96-A853-44388E9184ED}"/>
+    <hyperlink ref="F16" r:id="rId1" xr:uid="{2115F6BE-D323-402C-B189-D7FE1EDFDC1F}"/>
+    <hyperlink ref="F8" r:id="rId2" xr:uid="{8DAF232B-D6F5-4C96-A853-44388E9184ED}"/>
+    <hyperlink ref="F13" r:id="rId3" xr:uid="{1AF387CD-C6F3-4B96-A6AA-ACAC65323F50}"/>
+    <hyperlink ref="F14" r:id="rId4" xr:uid="{47009E47-954E-466E-AE52-D788A03B84CA}"/>
+    <hyperlink ref="G14" r:id="rId5" display="Link" xr:uid="{3A3544CF-A69A-4071-8C41-129CC8550A9C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>

--- a/BOM e datasheet/BOM.xlsx
+++ b/BOM e datasheet/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://midacspa-my.sharepoint.com/personal/riccardo_mattuzzi_midacbatteries_com/Documents/Documenti/cella_di_lievitazione/BOM e datasheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="121" documentId="8_{6900F1C8-D8B3-4807-AEC0-609A5619ABC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0999BC7-A6A4-421D-82FA-C0FD604F2866}"/>
+  <xr:revisionPtr revIDLastSave="201" documentId="8_{6900F1C8-D8B3-4807-AEC0-609A5619ABC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AA73B0F-CF67-41A8-A744-1D91E0AF0A8C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{474E07AD-7AAC-4CCB-9913-5DDD86DC6BD2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
   <si>
     <t>(Titolo tabella)</t>
   </si>
@@ -159,13 +159,40 @@
   </si>
   <si>
     <t>Pulsante per ON/OFF</t>
+  </si>
+  <si>
+    <t>Resistore 62 Ohm</t>
+  </si>
+  <si>
+    <t>Heater</t>
+  </si>
+  <si>
+    <t>Bourns</t>
+  </si>
+  <si>
+    <t>CR2512-JW-620ELF</t>
+  </si>
+  <si>
+    <t>Condensatore disturbi 1</t>
+  </si>
+  <si>
+    <t>Condensatore disturbi 2</t>
+  </si>
+  <si>
+    <t>Diodo Zener 12 V</t>
+  </si>
+  <si>
+    <t>Meglio 1 o 2?</t>
+  </si>
+  <si>
+    <t>Colonna1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +237,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -232,7 +265,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -261,6 +294,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -284,45 +318,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -380,6 +376,44 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -542,23 +576,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5095E20A-1147-42E2-981A-F3902435D0B4}" name="Tabella4" displayName="Tabella4" ref="A6:I22" totalsRowShown="0" headerRowDxfId="9">
-  <autoFilter ref="A6:I22" xr:uid="{5095E20A-1147-42E2-981A-F3902435D0B4}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:I21">
-    <sortCondition ref="E7:E21"/>
-    <sortCondition ref="B7:B21"/>
-    <sortCondition ref="C7:C21"/>
-  </sortState>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5095E20A-1147-42E2-981A-F3902435D0B4}" name="Tabella4" displayName="Tabella4" ref="A6:I26" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="A6:I26" xr:uid="{5095E20A-1147-42E2-981A-F3902435D0B4}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{4EA44607-612E-4E0E-B876-53478E8A15E2}" name="Descrizione" dataDxfId="8"/>
     <tableColumn id="6" xr3:uid="{1CE43BCF-3EE3-4CB7-9D6C-EBBD7D4CFDCA}" name="Produttore" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{857D4DC0-83B2-4716-A8E7-6A350B55319B}" name="PN" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{008672F6-50FB-4036-B51A-ABEF39F8D83E}" name="Quantità" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{10B68DF9-9DE7-4148-994A-A586812D992C}" name="Gruppo" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{63EB43F7-1E48-4BBF-A207-E447E6BB6A72}" name="Link 1" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{7B3DA2D8-867A-455C-9C5D-A4BD2DF6D4C4}" name="Doc. 1" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{C1B6FE26-4A97-4460-8C9D-4BB80459E540}" name="Nota 1" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{50AA0DFA-4D0A-40B6-8AA8-3BE030FB2E79}" name="Nota 2" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{008672F6-50FB-4036-B51A-ABEF39F8D83E}" name="Quantità" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{10B68DF9-9DE7-4148-994A-A586812D992C}" name="Gruppo" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{63EB43F7-1E48-4BBF-A207-E447E6BB6A72}" name="Link 1" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{7B3DA2D8-867A-455C-9C5D-A4BD2DF6D4C4}" name="Doc. 1" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{C1B6FE26-4A97-4460-8C9D-4BB80459E540}" name="Nota 1" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{50AA0DFA-4D0A-40B6-8AA8-3BE030FB2E79}" name="Nota 2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Stile tabella 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -881,10 +910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B2ACCA9-0C84-4CCE-ACB9-751036E0B3BF}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="206" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -892,14 +921,14 @@
     <col min="1" max="1" width="24.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.140625" style="2"/>
     <col min="3" max="3" width="24.28515625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="5"/>
+    <col min="4" max="4" width="12.140625" style="5" customWidth="1"/>
     <col min="5" max="5" width="24.28515625" style="5" customWidth="1"/>
     <col min="6" max="7" width="12.140625" style="2"/>
     <col min="8" max="9" width="24.28515625" style="2" customWidth="1"/>
     <col min="10" max="16384" width="12.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>13</v>
       </c>
@@ -908,7 +937,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -917,12 +946,12 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -931,12 +960,12 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -964,8 +993,11 @@
       <c r="I6" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
@@ -978,8 +1010,9 @@
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>21</v>
       </c>
@@ -996,8 +1029,9 @@
         <v>23</v>
       </c>
       <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>30</v>
       </c>
@@ -1010,8 +1044,9 @@
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
@@ -1027,8 +1062,9 @@
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>32</v>
       </c>
@@ -1044,8 +1080,9 @@
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>33</v>
       </c>
@@ -1061,22 +1098,23 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D13" s="5">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>22</v>
@@ -1084,158 +1122,252 @@
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>36</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
       <c r="D14" s="5">
         <v>1</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>38</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
       <c r="E15" s="8" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>19</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
       <c r="D16" s="5">
         <v>1</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9" t="s">
-        <v>20</v>
-      </c>
+      <c r="E16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="H16" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
+        <v>35</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="D17" s="5">
-        <v>2</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>11</v>
-      </c>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="8"/>
-      <c r="E19" s="8"/>
+      <c r="E19" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="8"/>
-      <c r="E20" s="8"/>
+      <c r="D20" s="5">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
       <c r="E21" s="8"/>
-      <c r="F21" s="7"/>
+      <c r="F21" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="8"/>
       <c r="D22" s="5">
-        <v>1</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>31</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E22" s="8"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+    </row>
+    <row r="29" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="B29" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F16" r:id="rId1" xr:uid="{2115F6BE-D323-402C-B189-D7FE1EDFDC1F}"/>
+    <hyperlink ref="F21" r:id="rId1" xr:uid="{2115F6BE-D323-402C-B189-D7FE1EDFDC1F}"/>
     <hyperlink ref="F8" r:id="rId2" xr:uid="{8DAF232B-D6F5-4C96-A853-44388E9184ED}"/>
-    <hyperlink ref="F13" r:id="rId3" xr:uid="{1AF387CD-C6F3-4B96-A6AA-ACAC65323F50}"/>
-    <hyperlink ref="F14" r:id="rId4" xr:uid="{47009E47-954E-466E-AE52-D788A03B84CA}"/>
-    <hyperlink ref="G14" r:id="rId5" display="Link" xr:uid="{3A3544CF-A69A-4071-8C41-129CC8550A9C}"/>
+    <hyperlink ref="F18" r:id="rId3" xr:uid="{1AF387CD-C6F3-4B96-A6AA-ACAC65323F50}"/>
+    <hyperlink ref="F17" r:id="rId4" xr:uid="{47009E47-954E-466E-AE52-D788A03B84CA}"/>
+    <hyperlink ref="G17" r:id="rId5" display="Link" xr:uid="{3A3544CF-A69A-4071-8C41-129CC8550A9C}"/>
+    <hyperlink ref="F13" r:id="rId6" xr:uid="{F75887E4-38C9-4331-8C63-B5B884239271}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
   <tableParts count="1">
-    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
